--- a/material/OMS-I-ADOPT_template.xlsx
+++ b/material/OMS-I-ADOPT_template.xlsx
@@ -1,18 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OEM\Downloads\New folder\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD845C30-C6A8-48EE-ACA7-15B3EE71BF8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="demo" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="observation" sheetId="2" r:id="rId5"/>
+    <sheet name="demo" sheetId="1" r:id="rId1"/>
+    <sheet name="observation" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="65">
   <si>
     <t>you might want to follow a specific community practice</t>
   </si>
@@ -52,17 +61,17 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
         <rFont val="Calibri"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">define which patterns apply according to the Variable Pattern Design, see here: </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
       </rPr>
       <t>https://github.com/i-adopt/patterns/blob/main/README.md</t>
     </r>
@@ -79,56 +88,51 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="14"/>
         <rFont val="Calibri"/>
-        <b/>
-        <sz val="14.0"/>
       </rPr>
       <t xml:space="preserve">Feature of Interest
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
         <rFont val="Calibri"/>
-        <b val="0"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">Here we would like to see the feature Type of the 2 FoIs, if possible from a standardized source, e.g.:
 * HY_Features: </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
-        <b val="0"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
       </rPr>
       <t>https://defs.opengis.net/vocprez/object?uri=https%3A//www.opengis.net/def/schema/hy_features/hyf</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
         <rFont val="Calibri"/>
-        <b val="0"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> 
 * INSPIRE Feature Catalog: </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
-        <b val="0"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
       </rPr>
       <t>https://inspire.ec.europa.eu/featureconcept</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
         <rFont val="Calibri"/>
-        <b val="0"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -271,17 +275,17 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
         <rFont val="Calibri"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">define which patterns apply according to the Variable Pattern Design, see here: </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
       </rPr>
       <t>https://github.com/i-adopt/patterns/blob/main/README.md</t>
     </r>
@@ -289,79 +293,125 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="14.0"/>
       </rPr>
       <t xml:space="preserve">Feature of Interest
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>Here we would like to see the feature Type of the 2 FoIs, if possible from a standardized source, e.g.:
 * HY_Features: https://defs.opengis.net/vocprez/object?uri=https%3A//www.opengis.net/def/schema/hy_features/hyf
 * INSPIRE Feature Catalog: https://inspire.ec.europa.eu/featureconcept</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Involving a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sample</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="13.0"/>
+      <sz val="13"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF1155CC"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -369,7 +419,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -426,23 +476,34 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
-    <border/>
+  <borders count="7">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -451,115 +512,126 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="34">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="6" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="7" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="8" fontId="6" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="9" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="9" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="10" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -570,11 +642,17 @@
     <xdr:ext cx="7515225" cy="4695825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="2" name="image1.png" title="Image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -591,12 +669,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -786,36 +860,41 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AE10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="V10" sqref="V10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75" outlineLevelCol="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="21.63"/>
-    <col customWidth="1" min="4" max="4" width="49.75"/>
-    <col collapsed="1" min="6" max="6" width="12.63"/>
-    <col hidden="1" min="7" max="7" width="12.63" outlineLevel="1"/>
-    <col collapsed="1" min="8" max="8" width="12.63"/>
-    <col hidden="1" min="9" max="9" width="12.63" outlineLevel="1"/>
-    <col collapsed="1" min="10" max="10" width="12.63"/>
-    <col hidden="1" min="11" max="11" width="12.63" outlineLevel="1"/>
-    <col collapsed="1" min="12" max="12" width="12.63"/>
-    <col hidden="1" min="13" max="13" width="12.63" outlineLevel="1"/>
-    <col collapsed="1" min="14" max="14" width="12.63"/>
-    <col hidden="1" min="15" max="15" width="12.63" outlineLevel="1"/>
-    <col collapsed="1" min="23" max="23" width="12.63"/>
-    <col hidden="1" min="24" max="24" width="12.63" outlineLevel="1"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="49.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" collapsed="1"/>
+    <col min="7" max="7" width="12.5703125" hidden="1" outlineLevel="1"/>
+    <col min="8" max="8" width="12.5703125" collapsed="1"/>
+    <col min="9" max="9" width="12.5703125" hidden="1" outlineLevel="1"/>
+    <col min="10" max="10" width="12.5703125" collapsed="1"/>
+    <col min="11" max="11" width="12.5703125" hidden="1" outlineLevel="1"/>
+    <col min="12" max="12" width="12.5703125" collapsed="1"/>
+    <col min="13" max="13" width="12.5703125" hidden="1" outlineLevel="1"/>
+    <col min="14" max="14" width="12.5703125" collapsed="1"/>
+    <col min="15" max="15" width="12.5703125" hidden="1" outlineLevel="1"/>
+    <col min="24" max="24" width="12.5703125" collapsed="1"/>
+    <col min="25" max="25" width="12.5703125" hidden="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -874,210 +953,222 @@
       <c r="T1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="V1" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="9"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="11" t="s">
+      <c r="W1" s="29"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="16" t="s">
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="M2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="N2" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="20" t="s">
+      <c r="O2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="19" t="s">
+      <c r="P2" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="21" t="s">
+      <c r="Q2" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="19" t="s">
+      <c r="R2" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="19" t="s">
+      <c r="S2" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="T2" s="19" t="s">
+      <c r="T2" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="U2" s="22" t="s">
+      <c r="U2" s="32"/>
+      <c r="V2" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="V2" s="22" t="s">
+      <c r="W2" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="W2" s="23" t="s">
+      <c r="X2" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="X2" s="24" t="s">
+      <c r="Y2" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="25" t="s">
+      <c r="Z2" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="Z2" s="26" t="s">
+      <c r="AA2" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="AA2" s="27" t="s">
+      <c r="AB2" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="AB2" s="28" t="s">
+      <c r="AC2" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="AC2" s="28" t="s">
+      <c r="AD2" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AD2" s="29"/>
+      <c r="AE2" s="25"/>
     </row>
-    <row r="3">
-      <c r="A3" s="30" t="s">
+    <row r="3" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="J3" s="30" t="s">
+      <c r="J3" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="N3" s="30" t="s">
+      <c r="N3" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="P3" s="30" t="s">
+      <c r="P3" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="Q3" s="30" t="s">
+      <c r="Q3" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="R3" s="30" t="s">
+      <c r="R3" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="U3" s="30" t="s">
+      <c r="V3" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="V3" s="30" t="s">
+      <c r="W3" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="W3" s="30" t="s">
+      <c r="X3" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="Y3" s="30" t="s">
+      <c r="Z3" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="AA3" s="30" t="s">
+      <c r="AB3" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="AB3" s="30" t="s">
+      <c r="AC3" s="26" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10">
-      <c r="B10" s="31" t="s">
+    <row r="10" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="27" t="s">
         <v>61</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="U1:V1"/>
+  <mergeCells count="2">
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="U1:U2"/>
   </mergeCells>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="P3">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="P3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"qualitative,quantitative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Q3">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Q3" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"concentration,distance (symmetric),distance (asymmetric),boolean,complexproperty,biological,simple,I-ADOPT PLUS,other"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="Q1"/>
-    <hyperlink r:id="rId2" ref="U1"/>
+    <hyperlink ref="Q1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="V1" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AD3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75" outlineLevelCol="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="1" min="6" max="6" width="12.63"/>
-    <col hidden="1" min="7" max="7" width="12.63" outlineLevel="1"/>
-    <col collapsed="1" min="8" max="8" width="12.63"/>
-    <col hidden="1" min="9" max="9" width="12.63" outlineLevel="1"/>
-    <col collapsed="1" min="10" max="10" width="12.63"/>
-    <col hidden="1" min="11" max="11" width="12.63" outlineLevel="1"/>
-    <col collapsed="1" min="12" max="12" width="12.63"/>
-    <col hidden="1" min="13" max="13" width="12.63" outlineLevel="1"/>
-    <col collapsed="1" min="14" max="14" width="12.63"/>
-    <col hidden="1" min="15" max="15" width="12.63" outlineLevel="1"/>
-    <col collapsed="1" min="23" max="23" width="12.63"/>
-    <col hidden="1" min="24" max="24" width="12.63" outlineLevel="1"/>
+    <col min="6" max="6" width="12.5703125" collapsed="1"/>
+    <col min="7" max="7" width="12.5703125" hidden="1" outlineLevel="1"/>
+    <col min="8" max="8" width="12.5703125" collapsed="1"/>
+    <col min="9" max="9" width="12.5703125" hidden="1" outlineLevel="1"/>
+    <col min="10" max="10" width="12.5703125" collapsed="1"/>
+    <col min="11" max="11" width="12.5703125" hidden="1" outlineLevel="1"/>
+    <col min="12" max="12" width="12.5703125" collapsed="1"/>
+    <col min="13" max="13" width="12.5703125" hidden="1" outlineLevel="1"/>
+    <col min="14" max="14" width="12.5703125" collapsed="1"/>
+    <col min="15" max="15" width="12.5703125" hidden="1" outlineLevel="1"/>
+    <col min="19" max="19" width="41.7109375" customWidth="1"/>
+    <col min="20" max="20" width="28.42578125" customWidth="1"/>
+    <col min="21" max="21" width="18.85546875" customWidth="1"/>
+    <col min="24" max="24" width="12.5703125" collapsed="1"/>
+    <col min="25" max="25" width="12.5703125" hidden="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:30" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1136,128 +1227,133 @@
       <c r="T1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="32" t="s">
+      <c r="U1" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="V1" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="V1" s="9"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="11" t="s">
+      <c r="W1" s="29"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
     </row>
-    <row r="2">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="M2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="N2" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="20" t="s">
+      <c r="O2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="19" t="s">
+      <c r="P2" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="21" t="s">
+      <c r="Q2" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="19" t="s">
+      <c r="R2" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="19" t="s">
+      <c r="S2" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="T2" s="19" t="s">
+      <c r="T2" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="U2" s="22" t="s">
+      <c r="U2" s="32"/>
+      <c r="V2" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="V2" s="22" t="s">
+      <c r="W2" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="W2" s="23" t="s">
+      <c r="X2" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="X2" s="24" t="s">
+      <c r="Y2" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="25" t="s">
+      <c r="Z2" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="Z2" s="26" t="s">
+      <c r="AA2" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="AA2" s="27" t="s">
+      <c r="AB2" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="AB2" s="28" t="s">
+      <c r="AC2" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="AC2" s="28" t="s">
+      <c r="AD2" s="24" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3">
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
+    <row r="3" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="U1:V1"/>
+  <mergeCells count="2">
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="U1:U2"/>
   </mergeCells>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="P3">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="P3" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"qualitative,quantitative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Q3">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Q3" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"concentration,distance (symmetric),distance (asymmetric),boolean,complexproperty,biological,simple,I-ADOPT PLUS,other"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="Q1"/>
+    <hyperlink ref="Q1" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/material/OMS-I-ADOPT_template.xlsx
+++ b/material/OMS-I-ADOPT_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OEM\Downloads\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD845C30-C6A8-48EE-ACA7-15B3EE71BF8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1946CB-AC46-462A-B652-0A8FC7104A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="885" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="demo" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="67">
   <si>
     <t>you might want to follow a specific community practice</t>
   </si>
@@ -313,8 +313,47 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Involving a </t>
+    <t>no</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Involving a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Sample</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Involving a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -332,7 +371,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -401,17 +440,24 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="11">
@@ -476,7 +522,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -523,20 +569,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -604,15 +641,16 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -872,8 +910,8 @@
   </sheetPr>
   <dimension ref="A1:AE10"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -890,6 +928,7 @@
     <col min="13" max="13" width="12.5703125" hidden="1" outlineLevel="1"/>
     <col min="14" max="14" width="12.5703125" collapsed="1"/>
     <col min="15" max="15" width="12.5703125" hidden="1" outlineLevel="1"/>
+    <col min="21" max="21" width="16.140625" customWidth="1"/>
     <col min="24" max="24" width="12.5703125" collapsed="1"/>
     <col min="25" max="25" width="12.5703125" hidden="1" outlineLevel="1"/>
   </cols>
@@ -953,8 +992,8 @@
       <c r="T1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="31" t="s">
-        <v>64</v>
+      <c r="U1" s="33" t="s">
+        <v>65</v>
       </c>
       <c r="V1" s="28" t="s">
         <v>16</v>
@@ -1091,6 +1130,9 @@
       </c>
       <c r="R3" s="26" t="s">
         <v>56</v>
+      </c>
+      <c r="U3" s="34" t="s">
+        <v>64</v>
       </c>
       <c r="V3" s="26" t="s">
         <v>53</v>
@@ -1145,8 +1187,8 @@
   </sheetPr>
   <dimension ref="A1:AD3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1227,8 +1269,8 @@
       <c r="T1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="31" t="s">
-        <v>64</v>
+      <c r="U1" s="33" t="s">
+        <v>66</v>
       </c>
       <c r="V1" s="30" t="s">
         <v>63</v>
@@ -1302,7 +1344,7 @@
       <c r="S2" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="T2" s="33" t="s">
+      <c r="T2" s="31" t="s">
         <v>38</v>
       </c>
       <c r="U2" s="32"/>
